--- a/waves_measures.xlsx
+++ b/waves_measures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/benjamin_imsa_student_kuleuven_be/Documents/SIGMA internship/Codebook/Interactive-Codebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{0F797C36-94A5-C84F-B6D0-3C0294B28C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB07BFFB-ED15-9944-B44B-B6B985AC027D}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{0F797C36-94A5-C84F-B6D0-3C0294B28C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{414CB46A-A234-EE4A-9BB8-ACE6A7296E81}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14760" xr2:uid="{81805DFE-2550-DE4E-A332-63F7BF0D9309}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t xml:space="preserve">Alcohol/Drug use </t>
   </si>
   <si>
-    <t xml:space="preserve">Social Support (SSL) </t>
-  </si>
-  <si>
     <t>Psychosocial Skills (VPV)</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t xml:space="preserve">Self-harm and suicidal behavior </t>
   </si>
   <si>
-    <t>Dimensions of Identity Development Scale</t>
-  </si>
-  <si>
     <t xml:space="preserve">Physiological data </t>
   </si>
   <si>
@@ -114,9 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">Prodromal Questionnaire (PQ-16) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnostic Interview Schedule for Children (DIDS) </t>
   </si>
   <si>
     <t>COVID</t>
@@ -180,6 +171,15 @@
   </si>
   <si>
     <t>Wave 2a (2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnostic Interview Schedule for Children (DISC) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Support List (SSL) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimensions of Identity Development Scale (DIDS) </t>
   </si>
 </sst>
 </file>
@@ -52069,6 +52069,479 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="9194800" y="4800600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1567" name="AutoShape 3" descr="✔">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143F79E4-2264-E64F-BDCF-2744D6E8C47D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6426200" y="533400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1568" name="AutoShape 3" descr="✔">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4B6F25-6BEA-F14A-800A-1307BD8288BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6426200" y="736600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1569" name="AutoShape 3" descr="✔">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC40EC74-B74B-2F49-BA96-93A4FE2909B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6426200" y="736600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3581400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1570" name="Picture 1569">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936C8D3D-8298-A36E-651F-E1400431AC54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4978400" y="736600"/>
+          <a:ext cx="1397000" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1571" name="AutoShape 3" descr="✔">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE29D67-711A-7647-95B0-7BC723132FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7810500" y="3378200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1572" name="AutoShape 3" descr="✔">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9EF96C4-E937-3348-B539-503A1E31D9A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7810500" y="3378200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1573" name="AutoShape 3" descr="✔">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AABE96-56C0-3D49-A523-C093BD406FC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7810500" y="3378200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1574" name="AutoShape 3" descr="✔">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC60EB71-8814-EE4B-9167-E9367B1E357F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7810500" y="3581400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1575" name="AutoShape 3" descr="✔">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE6532F-A9FB-7540-B5FC-777BCB4316A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7810500" y="3581400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1576" name="AutoShape 3" descr="✔">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB3963E-934C-3D41-9183-81D7E571F828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7810500" y="3581400"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -52402,7 +52875,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -52425,7 +52898,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -52436,7 +52909,7 @@
     </row>
     <row r="2" spans="1:6" ht="26">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -52444,9 +52917,7 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
@@ -52478,7 +52949,9 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4" t="s">
         <v>3</v>
@@ -52529,21 +53002,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
@@ -52561,7 +53032,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
@@ -52579,7 +53050,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>3</v>
@@ -52597,7 +53068,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>3</v>
@@ -52617,7 +53088,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>3</v>
@@ -52634,7 +53105,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>3</v>
@@ -52651,7 +53122,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>3</v>
@@ -52671,7 +53142,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>3</v>
@@ -52691,7 +53162,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>3</v>
@@ -52705,7 +53176,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>3</v>
@@ -52722,12 +53193,15 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -52739,7 +53213,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>3</v>
@@ -52759,7 +53233,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>3</v>
@@ -52774,7 +53248,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -52790,7 +53264,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>3</v>
@@ -52801,7 +53275,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>3</v>
@@ -52812,7 +53286,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>3</v>
@@ -52823,7 +53297,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>3</v>
@@ -52840,7 +53314,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>3</v>
@@ -52851,7 +53325,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -52868,10 +53342,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>3</v>
@@ -52885,10 +53359,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>3</v>
@@ -52902,10 +53376,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>3</v>
@@ -52922,10 +53396,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>3</v>
@@ -52942,10 +53416,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>3</v>
@@ -52962,10 +53436,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>3</v>
@@ -52976,10 +53450,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>3</v>
@@ -52996,10 +53470,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>3</v>
@@ -53010,10 +53484,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>3</v>
@@ -53024,10 +53498,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>3</v>
@@ -53038,10 +53512,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>3</v>
